--- a/documentation/notkunartilvik.xlsx
+++ b/documentation/notkunartilvik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runar\Desktop\verklegtnamskeid1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF7997-B614-4545-B8A9-189987435D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8D504-ABFD-46B5-981F-24BB9B6E1CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="15" activeTab="17" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="20" activeTab="21" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
   </bookViews>
   <sheets>
     <sheet name="Starfsmannaskráning" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="Birting stöðu flugvéla" sheetId="22" r:id="rId20"/>
     <sheet name="Birting allra flugvéla" sheetId="23" r:id="rId21"/>
     <sheet name="Birting allra flugvéla í notkun" sheetId="24" r:id="rId22"/>
-    <sheet name="Birting allra flugvéla í no (2)" sheetId="25" r:id="rId23"/>
+    <sheet name="Birting allra flugvélategunda" sheetId="25" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1965,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9FA9C-3236-4396-863E-D4EE78B6DC94}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2506,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F40F29-6CBA-43A1-BDDF-B9B2162317DB}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2616,7 +2616,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documentation/notkunartilvik.xlsx
+++ b/documentation/notkunartilvik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runar\Desktop\verklegtnamskeid1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8D504-ABFD-46B5-981F-24BB9B6E1CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1177D-90FC-47F0-95DE-79EEC7BBB005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="20" activeTab="21" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="14" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
   </bookViews>
   <sheets>
     <sheet name="Starfsmannaskráning" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -309,23 +309,10 @@
 </t>
   </si>
   <si>
-    <t>Birting vinnuferða ákveðins starfsmanns</t>
-  </si>
-  <si>
     <t>Krafa 21 í kröfulista</t>
   </si>
   <si>
     <t>Að minnsta kosti einn starfsmaður og ein vinnuferð er skráð í kerfið</t>
-  </si>
-  <si>
-    <t>Kerfið birtir allar vinnuferðir tiltekins starfsmanns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta vinnuferðir
-3. Notandi velur að leita eftir ákveðnum starfsmanni
-4. Notandi setur inn dagsetningu
-</t>
   </si>
   <si>
     <t>Krafa 22 í kröfulista</t>
@@ -490,6 +477,19 @@
     <t xml:space="preserve">1. Notandi tengist viðmóti
 2. Notandi velur að birta allar flugvélategundir
 </t>
+  </si>
+  <si>
+    <t>Birting vinnuferða tiltekins starfsmanns í ákveðinni viku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi finnur ákveðinn starfsmann
+3. Notandi velur að finna vinnuferðir ákveðinnar viku
+4. Notandi setur inn viku
+</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar vinnuferðir tiltekins starfsmanns í viðeigandi viku</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231267F6-EFFB-4BA3-A683-8225B2276740}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,12 +1650,12 @@
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1697,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1713,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1721,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1828,7 +1828,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1836,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1844,7 +1844,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1899,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1945,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1953,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2008,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -2024,7 +2024,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2115,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -2155,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2163,7 +2163,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -2357,7 +2357,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2365,7 +2365,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -2464,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2472,7 +2472,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2480,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2488,7 +2488,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2506,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F40F29-6CBA-43A1-BDDF-B9B2162317DB}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -2565,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -2573,7 +2573,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -2581,7 +2581,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2589,7 +2589,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2597,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2658,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -2674,7 +2674,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -2690,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2698,7 +2698,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2706,7 +2706,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -2805,7 +2805,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2821,7 +2821,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3027,7 +3027,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3383,7 +3383,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3448,7 +3448,9 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">

--- a/documentation/notkunartilvik.xlsx
+++ b/documentation/notkunartilvik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runar\Desktop\verklegtnamskeid1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1177D-90FC-47F0-95DE-79EEC7BBB005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2F20AA-85B2-4012-A1A2-990D554FD40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="14" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
+    <workbookView xWindow="10476" yWindow="204" windowWidth="17280" windowHeight="8964" firstSheet="22" activeTab="22" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
   </bookViews>
   <sheets>
     <sheet name="Starfsmannaskráning" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Birting Starfsmanna" sheetId="7" r:id="rId5"/>
     <sheet name="Birting upplýsinga um starfsm " sheetId="9" r:id="rId6"/>
     <sheet name="Breyting upplýsinga um starfsm" sheetId="8" r:id="rId7"/>
-    <sheet name="Birting allra áfangastaða" sheetId="10" r:id="rId8"/>
+    <sheet name="Birting allra flugleiða" sheetId="10" r:id="rId8"/>
     <sheet name="Birting allra vinnuferða" sheetId="11" r:id="rId9"/>
     <sheet name="Breyting upplýsinga um vinnufer" sheetId="12" r:id="rId10"/>
     <sheet name="Birting ákveðinna vinnuferð (2)" sheetId="14" r:id="rId11"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -106,390 +106,421 @@
     <t>Skipuleggjari</t>
   </si>
   <si>
-    <t>4a. Það vantar upplýsingar, skref 3 endurtekur sig</t>
-  </si>
-  <si>
     <t>Skráning vinnuferðar</t>
   </si>
   <si>
-    <t>Skráning áfangastaðs</t>
-  </si>
-  <si>
     <t>Skráning starfsmanns</t>
   </si>
   <si>
     <t>Birting starfsmanna</t>
   </si>
   <si>
+    <t>Krafa 10 í kröfulista</t>
+  </si>
+  <si>
+    <t>Krafa 7, 8 og 9 í kröfulista</t>
+  </si>
+  <si>
+    <t>Krafa 11 í kröfulista</t>
+  </si>
+  <si>
+    <t>4a. Starfsmaður fannst ekki í kerfinu, skref 3 endurtekur sig</t>
+  </si>
+  <si>
+    <t>Krafa 12 í kröfulista</t>
+  </si>
+  <si>
+    <t>Breyting upplýsinga um starfsmann</t>
+  </si>
+  <si>
+    <t>Kerfið breytir upplýsingum um ákveðinn starfsmann</t>
+  </si>
+  <si>
+    <t>Kerfið birtir upplýsingar um ákveðinn starfsmann</t>
+  </si>
+  <si>
+    <t>Birting upplýsinga um ákveðinn starfsmann</t>
+  </si>
+  <si>
+    <t>Endurtekning á vinnuferð</t>
+  </si>
+  <si>
+    <t>Krafa 4 og 5 í kröfulista</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti ein vinnuferð er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Notandi lætur tiltekna vinnuferð endurtaka sig ákveðin skipti eða reglulega</t>
+  </si>
+  <si>
+    <t>Valin vinnuferð endurtekur sig</t>
+  </si>
+  <si>
+    <t>Nýr starfsmaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn starfmaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn áfangastaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Krafa 13 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting allra vinnuferða</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar vinnuferðir og viðeigandi upplýsingar</t>
+  </si>
+  <si>
+    <t>Krafa 16 í kröfulista</t>
+  </si>
+  <si>
+    <t>Breyting upplýsinga um vinnuferð</t>
+  </si>
+  <si>
+    <t>Skipuleggjari og Mannari</t>
+  </si>
+  <si>
+    <t>Krafa 17 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting ákveðinna vinnuferða</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar vinnuferðir sem eru á tilteknum degi</t>
+  </si>
+  <si>
+    <t>Krafa 18 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting starfsmanna sem vinna ekki á tilteknum degi</t>
+  </si>
+  <si>
+    <t>Krafa 19 í kröfulista</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn starfsmaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Kerfið birtir alla starfsmenn sem eru ekki að vinna á tilteknum degi</t>
+  </si>
+  <si>
+    <t>Birting starfsmanna sem eru að vinna á tilteknum degi</t>
+  </si>
+  <si>
+    <t>Krafa 20 í kröfulista</t>
+  </si>
+  <si>
+    <t>Kerfið birtir alla starfsmenn sem eru að vinna á tilteknum degi</t>
+  </si>
+  <si>
+    <t>Krafa 21 í kröfulista</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn starfsmaður og ein vinnuferð er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Krafa 22 í kröfulista</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Skráning flugvélar</t>
+  </si>
+  <si>
+    <t>Ný flugvél er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Krafa 24 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting flugmanna sem hafa leyfi til að fljúga tiltekinni flugvélategund</t>
+  </si>
+  <si>
+    <t>5a. Vantar upplýsingar, skref 4 endurtekur sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerfið birtir tiltekinn starfsmenn ásamt viðeigandi upplýsingum </t>
+  </si>
+  <si>
+    <t>Ný vinnuferð sem hefur tvö flugnúmer er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Krafa 3, 6 og 28 í kröfulista</t>
+  </si>
+  <si>
+    <t>Krafa 32 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting stöðu vinnuferðar</t>
+  </si>
+  <si>
+    <t>Allir</t>
+  </si>
+  <si>
+    <t>Breyting upplýsinga tengiliðs</t>
+  </si>
+  <si>
+    <t>Krafa 33 í kröfulista</t>
+  </si>
+  <si>
+    <t>Tengiliðaupplýsingum hefur verið breytt í kerfinu</t>
+  </si>
+  <si>
+    <t>Krafa 34 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting stöðu flugvéla</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti ein flugvél er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Kerfið birtir stöðu allra flugvéla ásamt upplýsingum hverrar vélar miðað við innslátt notanda</t>
+  </si>
+  <si>
+    <t>Birting allra flugvéla</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar flugvélar ásamt viðeigandi upplýsingum hverrar vélar</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti ein flugvél er í notkun</t>
+  </si>
+  <si>
+    <t>Birting allra flugvéla í notkun</t>
+  </si>
+  <si>
+    <t>Krafa 35, 36, 37 í kröfulista</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar flugvélar sem eru í notkun ásamt upplýsingum fyrir hverja vél og hvenær hver vél verður ekki lengur í notkun</t>
+  </si>
+  <si>
+    <t>Krafa 38 í kröfulista</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Birting allra flugvélategunda</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar flugvélategundir ásamt því hve margir flugmenn hafa leyfi til að fljúga hverri tegund</t>
+  </si>
+  <si>
+    <t>Birting vinnuferða tiltekins starfsmanns í ákveðinni viku</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar vinnuferðir tiltekins starfsmanns í viðeigandi viku</t>
+  </si>
+  <si>
+    <t>5a. Það vantar upplýsingar, skref 3 endurtekur sig</t>
+  </si>
+  <si>
+    <t>Skráning flugleiðar</t>
+  </si>
+  <si>
+    <t>Ný flugleið er skráður í kerfinu</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur hvort hann vilji birta alla starfsmenn eða eingöngu þá sem eru flugmenn eða flugþjóna
+2. Notandi velur Flight routes
+3. Notandi velur New flight route
+4. Notandi setur inn viðeigandi upplýsingar, eins og til hvaða áfangastaðar er flogið til
+5. Notandi staðfestir skráningu
 </t>
   </si>
   <si>
-    <t>Krafa 10 í kröfulista</t>
-  </si>
-  <si>
-    <t>Kerfið birtir upplýsingar um viðeigandi starfsmenn</t>
-  </si>
-  <si>
-    <t>Krafa 7, 8 og 9 í kröfulista</t>
-  </si>
-  <si>
-    <t>Krafa 11 í kröfulista</t>
-  </si>
-  <si>
-    <t>4a. Starfsmaður fannst ekki í kerfinu, skref 3 endurtekur sig</t>
-  </si>
-  <si>
-    <t>Krafa 12 í kröfulista</t>
-  </si>
-  <si>
-    <t>Birting allra áfangastaða</t>
-  </si>
-  <si>
-    <t>Breyting upplýsinga um starfsmann</t>
+    <t>7a. Enginn starfsmaður valinn, skref 8 fer í gang
+8a. Það vantar nauðsynlegar upplýsingar og viðeigandi skref endurtaka sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Voyages
+3. Notandi leitar af vinnuferð
+4. Notandi lætur vinnuferð endurtaka sig
+5. Notandi velur hve oft hún endurtekur sig
+6. Notandi staðfestir val sitt 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Employees
+3. Notandi velur hvort hann vilji birta alla starfsmenn eða eingöngu þá sem eru flugmenn eða flugþjóna
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Employees
+3. Notandi velur New Employee 
+4. Notandi setur inn viðeigandi upplýsingar um starfsmann
+5. Notandi staðfestir skráningu
+</t>
   </si>
   <si>
     <t>1. Notandi tengist viðmóti
-2. Notandi velur að hann vilji breyta upplýsingum um ákveðinn starfsmann 
-3. Notandi leitar eftir ákveðnum starfsmanni
-4. Notandi breytir upplýsingum valda starfsmannsins</t>
+2. Notandi velur Voyages
+3. Notandi velur New Voyage
+4.Notandi velur flugleið fyrir ferðina
+5. Notandi velur dagskrá ferðarinnar 
+6. Notandi velur flugvél fyrir ferðina
+7. Notandi velur starfsmenn fyrir ferðina
+8. Notandi staðfestir skráningu</t>
   </si>
   <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að skrá áfangastað
-3. Notandi setur inn viðeigandi upplýsingar um áfangastaðinn
-4. Notandi staðfestir skráningu
+2. Notandi velur Employees
+3. Notandi leitar eftir starfsmanni
+4. Notandi velur starfsmanninn
 </t>
   </si>
   <si>
-    <t>Kerfið breytir upplýsingum um ákveðinn starfsmann</t>
-  </si>
-  <si>
-    <t>Kerfið birtir upplýsingar um ákveðinn starfsmann</t>
+    <t>1. Notandi tengist viðmóti
+2. Notandi velur Employees
+3. Notandi leitar eftir starfsmanni
+4. Notandi velur starfsmanninn
+5. Notandi breytir upplýsingum valda starfsmannsins
+6. Notandi staðfestir breytingar</t>
+  </si>
+  <si>
+    <t>Birting allra flugleiða</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti ein flugleið er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar flugleiðir</t>
   </si>
   <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að fá upplýsingar um starfsmann
-3. Notandi leitar eftir stafsmanni
+2. Notandi velur Flight routes
+3. Notandi velur að birta allar flugleiðir
 </t>
   </si>
   <si>
-    <t>Birting upplýsinga um ákveðinn starfsmann</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta alla áfangastaði
+2. Notandi velur Voyages
+3. Notandi velur að birta allar vinnuferðir
 </t>
   </si>
   <si>
-    <t>Endurtekning á vinnuferð</t>
-  </si>
-  <si>
-    <t>Krafa 4 og 5 í kröfulista</t>
-  </si>
-  <si>
-    <t>Að minnsta kosti ein vinnuferð er skráð í kerfið</t>
+    <t>Kerfið breytir upplýsingum um ákveðna vinnuferð</t>
+  </si>
+  <si>
+    <t>4a. Vinnuferð fannst ekki í kerfinu, skref 3 endurtekur sig</t>
   </si>
   <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að endurtaka skráningu
-3. Notandi velur vinnuferð
-4. Notandi setur inn viðeigandi upplýsingar 
+2. Notandi velur að Voyages
+3. Notandi leitar af vinnuferð
+4. Notandi velur vinnuferðina
+5. Notandi breytir upplýsingum um vinnuferð
+6. Notandi staðfestir breytingar
 </t>
   </si>
   <si>
-    <t>Notandi lætur tiltekna vinnuferð endurtaka sig ákveðin skipti eða reglulega</t>
-  </si>
-  <si>
-    <t>Valin vinnuferð endurtekur sig</t>
-  </si>
-  <si>
-    <t>Nýr áfangastaður er skráður í kerfinu</t>
-  </si>
-  <si>
-    <t>Nýr starfsmaður er skráður í kerfið</t>
-  </si>
-  <si>
-    <t>Að minnsta kosti einn starfmaður er skráður í kerfið</t>
-  </si>
-  <si>
-    <t>Að minnsta kosti einn áfangastaður er skráður í kerfið</t>
-  </si>
-  <si>
-    <t>Krafa 13 í kröfulista</t>
-  </si>
-  <si>
-    <t>Birting allra vinnuferða</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta allar vinnuferðir
-</t>
-  </si>
-  <si>
-    <t>Kerfið birtir allar vinnuferðir og viðeigandi upplýsingar</t>
-  </si>
-  <si>
-    <t>Krafa 16 í kröfulista</t>
-  </si>
-  <si>
-    <t>Breyting upplýsinga um vinnuferð</t>
-  </si>
-  <si>
-    <t>Skipuleggjari og Mannari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að breyta vinnuferð
-3. Notandi velur tiltekna vinnuferð til að breyta
-4. Notandi breytir upplýsingum um vinnuferð
-5. Notandi staðfestir breytingar
-</t>
-  </si>
-  <si>
-    <t>Krafa 17 í kröfulista</t>
-  </si>
-  <si>
-    <t>Birting ákveðinna vinnuferða</t>
-  </si>
-  <si>
-    <t>Kerfið birtir allar vinnuferðir sem eru á tilteknum degi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta vinnuferð
-3. Notandi setur inn dagsetningu
-</t>
-  </si>
-  <si>
-    <t>Krafa 18 í kröfulista</t>
-  </si>
-  <si>
-    <t>Kerfið birtir allar vinnuferðir sem eru á tiltekinni viku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta vinnuferð
-3. Notandi setur viku
-</t>
-  </si>
-  <si>
-    <t>Birting starfsmanna sem vinna ekki á tilteknum degi</t>
-  </si>
-  <si>
-    <t>Krafa 19 í kröfulista</t>
-  </si>
-  <si>
-    <t>Að minnsta kosti einn starfsmaður er skráður í kerfið</t>
-  </si>
-  <si>
-    <t>Kerfið birtir alla starfsmenn sem eru ekki að vinna á tilteknum degi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta starfsmenn í fríi
-3. Notandi setur inn dagsetningu
-</t>
-  </si>
-  <si>
-    <t>Birting starfsmanna sem eru að vinna á tilteknum degi</t>
-  </si>
-  <si>
-    <t>Krafa 20 í kröfulista</t>
-  </si>
-  <si>
-    <t>Kerfið birtir alla starfsmenn sem eru að vinna á tilteknum degi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta starfsmenn
-3. Notandi velur að leita eftir ákveðnum degi
+2. Notandi velur Voyages
+3. Notandi leitar af vinnuferðum á ákveðnum degi
 4. Notandi setur inn dagsetningu
 </t>
   </si>
   <si>
-    <t>Krafa 21 í kröfulista</t>
-  </si>
-  <si>
-    <t>Að minnsta kosti einn starfsmaður og ein vinnuferð er skráð í kerfið</t>
-  </si>
-  <si>
-    <t>Krafa 22 í kröfulista</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Skráning flugvélar</t>
-  </si>
-  <si>
-    <t>Ný flugvél er skráð í kerfið</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að skrá flugvél
-3. Notandi setur inn viðeigandi upplýsingar
-4. Notandi staðfestir skráningu
+2. Notandi velur Voyages
+3. Notandi leitar af vinnuferðum í ákveðinni viku
+4. Notandi setur inn viku
 </t>
   </si>
   <si>
-    <t>4a. Vantar upplýsingar, skref 3 endurtekur sig</t>
+    <t>Kerfið birtir allar vinnuferðir sem eru í tiltekinni viku</t>
   </si>
   <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að skrá starfsmann
-3. Notandi setur inn viðeigandi upplýsingar um starfsmann
-4. Notandi staðfestir skráningu
+2. Notandi velur Employees
+2. Notandi velur Show employees off duty
+3. Notandi velur að leita eftir dagsetningu
+4. Notandi setur inn dagsetningu
 </t>
   </si>
   <si>
-    <t>Krafa 24 í kröfulista</t>
-  </si>
-  <si>
-    <t>Birting flugmanna sem hafa leyfi til að fljúga tiltekinni flugvélategund</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta flugmenn
-3. Notandi velur að leita eftir flugvélategund
+2. Notandi velur Employees
+2. Notandi velur Show employees on duty
+3. Notandi velur að leita eftir dagsetningu
+4. Notandi setur inn dagsetningu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Employees
+3. Notandi leitar af starfsmanni
+4. Notandi velur að birta vinnuferðir í ákveðinni viku
+5. Notandi setur inn viku
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Airplanes
+3. Notandi velur New airplane
+4. Notandi setur inn viðeigandi upplýsingar
+5. Notandi staðfestir skráningu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Employees
+3. Notandi velur Find pilots by license
 4. Notandi setur inn flugvélategund
 5. Notandi staðfestir leit
 </t>
   </si>
   <si>
-    <t>5a. Vantar upplýsingar, skref 4 endurtekur sig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kerfið birtir tiltekinn starfsmenn ásamt viðeigandi upplýsingum </t>
-  </si>
-  <si>
-    <t>1. Notandi tengist viðmóti
-2. Notandi velur að skrá vinnuferð
-3. Notandi velur flugvél fyrir ferðina
-4. Notandi velur starfsmenn fyrir ferðina
-5. Notandi setur inn nauðsynlegar upplýsingar
-6. Notandi staðfestir skráningu</t>
-  </si>
-  <si>
-    <t>4a. Enginn starfsmaður valinn, skref 5 fer í gang
-6a. Það vantar nauðsynlegar upplýsingar, skref 5 endurtekur sig</t>
-  </si>
-  <si>
-    <t>Ný vinnuferð sem hefur tvö flugnúmer er skráð í kerfið</t>
-  </si>
-  <si>
-    <t>Krafa 3, 6 og 28 í kröfulista</t>
-  </si>
-  <si>
-    <t>Krafa 32 í kröfulista</t>
-  </si>
-  <si>
-    <t>Birting stöðu vinnuferðar</t>
-  </si>
-  <si>
-    <t>Allir</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta stöðu vinnuferðar
-3. Notandi setur inn vinnuferð
+2. Notandi velur Voyages
+3. Notandi leitar af vinnuferð
 4. Notandi staðfestir leit
 </t>
   </si>
   <si>
-    <t>Breyting upplýsinga tengiliðs</t>
-  </si>
-  <si>
-    <t>Krafa 33 í kröfulista</t>
+    <t>Kerfið birtir vinnuferðir og stöðu hverrar vinnuferðar</t>
   </si>
   <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að breyta tengilið
-3. Notandi velur hvaða tengilið skal breyta
-4. Notandi setur inn nýjar tengiliðaupplýsingar
-5. Notandi staðfestir breytingar
+2. Notandi velur Flight routes
+3. Notandi velur Show all flight routes
+4. Notandi velur flugleið til að breyta upplýsingum um
+5. Notandi breytir tengiliðaupplýsingum
+6. Notandi staðfestir breytingar
 </t>
   </si>
   <si>
-    <t>Tengiliðaupplýsingum hefur verið breytt í kerfinu</t>
-  </si>
-  <si>
-    <t>Krafa 34 í kröfulista</t>
-  </si>
-  <si>
-    <t>Birting stöðu flugvéla</t>
-  </si>
-  <si>
-    <t>Að minnsta kosti ein flugvél er skráð í kerfið</t>
-  </si>
-  <si>
-    <t>Kerfið birtir stöðu allra flugvéla ásamt upplýsingum hverrar vélar miðað við innslátt notanda</t>
-  </si>
-  <si>
-    <t>Birting allra flugvéla</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta allar flugvélar
+2. Notandi velur Airplanes
+3. Notandi velur Show all airplanes
+ </t>
+  </si>
+  <si>
+    <t>1. Notandi tengist viðmóti
+2. Notandi velur Airplanes
+3. Notandi velur Show all airplanes in use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Airplanes
+3. Notandi velur Show all airplanes
 </t>
   </si>
   <si>
-    <t>Kerfið birtir allar flugvélar ásamt viðeigandi upplýsingum hverrar vélar</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta stöðu flugvéla
-3. Notandi setur inn viðeigandi leitarupplýsingar
-4. Notandi staðfestir leit
- </t>
-  </si>
-  <si>
-    <t>Að minnsta kosti ein flugvél er í notkun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta allar vélar í notkun
+2. Notandi velur að Airplanes
+3. Notandi velur Show all airplane types
 </t>
-  </si>
-  <si>
-    <t>Birting allra flugvéla í notkun</t>
-  </si>
-  <si>
-    <t>Krafa 35, 36, 37 í kröfulista</t>
-  </si>
-  <si>
-    <t>Kerfið birtir allar flugvélar sem eru í notkun ásamt upplýsingum fyrir hverja vél og hvenær hver vél verður ekki lengur í notkun</t>
-  </si>
-  <si>
-    <t>Krafa 38 í kröfulista</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Birting allra flugvélategunda</t>
-  </si>
-  <si>
-    <t>Kerfið birtir allar flugvélategundir ásamt því hve margir flugmenn hafa leyfi til að fljúga hverri tegund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að birta allar flugvélategundir
-</t>
-  </si>
-  <si>
-    <t>Birting vinnuferða tiltekins starfsmanns í ákveðinni viku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi finnur ákveðinn starfsmann
-3. Notandi velur að finna vinnuferðir ákveðinnar viku
-4. Notandi setur inn viku
-</t>
-  </si>
-  <si>
-    <t>Kerfið birtir allar vinnuferðir tiltekins starfsmanns í viðeigandi viku</t>
   </si>
 </sst>
 </file>
@@ -975,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C527EF-45B2-4BE8-8101-527FA8A56B77}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1056,7 +1087,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1064,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1072,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1094,7 +1125,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1152,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1160,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1168,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1176,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1184,14 +1215,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1203,7 +1236,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1261,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1269,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1277,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1285,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1293,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1312,7 +1345,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1370,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1378,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1386,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1394,7 +1427,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1402,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1421,7 +1454,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1437,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1479,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1495,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1503,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1511,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1527,6 +1560,115 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE036FAD-60A4-48A5-96C2-C403E7333178}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231267F6-EFFB-4BA3-A683-8225B2276740}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -1546,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1558,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -1588,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1604,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1612,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1634,12 +1776,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231267F6-EFFB-4BA3-A683-8225B2276740}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20C9C74-4566-4724-A059-8ABF00AA230A}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D327BEA4-E962-455D-934E-D0F8D61A457A}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1655,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1667,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -1681,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1697,7 +1948,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1713,23 +1964,21 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1743,12 +1992,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20C9C74-4566-4724-A059-8ABF00AA230A}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9FA9C-3236-4396-863E-D4EE78B6DC94}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1776,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -1790,7 +2039,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1806,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1814,21 +2063,23 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1836,28 +2087,26 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D327BEA4-E962-455D-934E-D0F8D61A457A}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BECA7B-4B29-48D8-BDFC-4C7C7F118440}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1868,12 +2117,12 @@
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1885,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -1899,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1915,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1923,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1931,38 +2180,581 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9FA9C-3236-4396-863E-D4EE78B6DC94}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B77A97-6144-4F3F-91B6-E051ED19FF61}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4AB75-0A09-4C8C-9803-43F9037698DA}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E361A-16B3-48BE-B282-C2DDBFC869EF}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F40F29-6CBA-43A1-BDDF-B9B2162317DB}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F928BAA-0619-4BA5-9ACA-6DD97D4E7BAE}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01002F5D-098B-4BF7-8B2D-4A6C29C94998}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -1982,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1994,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -2008,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -2024,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -2032,780 +2824,21 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BECA7B-4B29-48D8-BDFC-4C7C7F118440}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B77A97-6144-4F3F-91B6-E051ED19FF61}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4AB75-0A09-4C8C-9803-43F9037698DA}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E361A-16B3-48BE-B282-C2DDBFC869EF}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F40F29-6CBA-43A1-BDDF-B9B2162317DB}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F928BAA-0619-4BA5-9ACA-6DD97D4E7BAE}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01002F5D-098B-4BF7-8B2D-4A6C29C94998}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2813,7 +2846,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2821,7 +2854,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2831,117 +2864,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF657B6-C379-4DD9-946D-115DD1C561C1}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE41DA2E-C5DA-4029-B0E4-17B73C32028E}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -2961,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2973,14 +2895,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -3003,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -3011,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3019,15 +2943,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3035,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -3049,12 +2973,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104FCCB8-AB3A-4A79-BA4C-5BAC16D11B4D}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE41DA2E-C5DA-4029-B0E4-17B73C32028E}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3070,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3082,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -3112,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -3120,7 +3044,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3128,7 +3052,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3136,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3144,7 +3068,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -3158,12 +3082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705F9A2E-AE11-4763-90A9-A2F3D2EFF989}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104FCCB8-AB3A-4A79-BA4C-5BAC16D11B4D}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3179,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3191,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -3221,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -3229,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3237,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3245,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3253,28 +3177,26 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B244B51-B66A-4010-824A-7B2114DECC3C}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705F9A2E-AE11-4763-90A9-A2F3D2EFF989}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3290,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3302,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -3332,7 +3254,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -3340,7 +3262,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3348,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3356,7 +3278,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3364,26 +3286,28 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C11B42-44EC-466A-B35C-331ABBA7CBD1}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B244B51-B66A-4010-824A-7B2114DECC3C}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3399,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3411,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -3441,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -3449,7 +3373,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3457,7 +3381,116 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C11B42-44EC-466A-B35C-331ABBA7CBD1}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3465,7 +3498,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3473,7 +3506,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">

--- a/documentation/notkunartilvik.xlsx
+++ b/documentation/notkunartilvik.xlsx
@@ -1,41 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runar\Desktop\verklegtnamskeid1\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gudmundur\Dropbox\Tölvunarfræði\Verk1\hópverk\verklegtnamskeid1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2F20AA-85B2-4012-A1A2-990D554FD40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E0646-CB47-4EFE-88ED-6EE13D72A33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10476" yWindow="204" windowWidth="17280" windowHeight="8964" firstSheet="22" activeTab="22" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14060" activeTab="2" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Starfsmannaskráning" sheetId="3" r:id="rId1"/>
-    <sheet name="Áfangastaðsskráning" sheetId="2" r:id="rId2"/>
-    <sheet name="Vinnuferðaskráning" sheetId="4" r:id="rId3"/>
-    <sheet name="Endurtekin vinnuferð" sheetId="5" r:id="rId4"/>
-    <sheet name="Birting Starfsmanna" sheetId="7" r:id="rId5"/>
-    <sheet name="Birting upplýsinga um starfsm " sheetId="9" r:id="rId6"/>
-    <sheet name="Breyting upplýsinga um starfsm" sheetId="8" r:id="rId7"/>
-    <sheet name="Birting allra flugleiða" sheetId="10" r:id="rId8"/>
-    <sheet name="Birting allra vinnuferða" sheetId="11" r:id="rId9"/>
-    <sheet name="Breyting upplýsinga um vinnufer" sheetId="12" r:id="rId10"/>
-    <sheet name="Birting ákveðinna vinnuferð (2)" sheetId="14" r:id="rId11"/>
-    <sheet name="Birting ákveðinna vinnuferða" sheetId="13" r:id="rId12"/>
-    <sheet name="Birting starfsmanna sem vinna e" sheetId="15" r:id="rId13"/>
-    <sheet name="Birting starfsmanna sem eru að " sheetId="16" r:id="rId14"/>
-    <sheet name="Birting vinnuferða ákveðins sta" sheetId="17" r:id="rId15"/>
-    <sheet name="Skráning flugvélar" sheetId="18" r:id="rId16"/>
-    <sheet name="Birting flugvéla sem tiltekinn " sheetId="19" r:id="rId17"/>
-    <sheet name="Birting stöðu vinnuferðar" sheetId="20" r:id="rId18"/>
-    <sheet name="Breyting upplýsinga tengiliðs" sheetId="21" r:id="rId19"/>
-    <sheet name="Birting stöðu flugvéla" sheetId="22" r:id="rId20"/>
-    <sheet name="Birting allra flugvéla" sheetId="23" r:id="rId21"/>
-    <sheet name="Birting allra flugvéla í notkun" sheetId="24" r:id="rId22"/>
-    <sheet name="Birting allra flugvélategunda" sheetId="25" r:id="rId23"/>
+    <sheet name="1. Skr. Starfsm." sheetId="3" r:id="rId1"/>
+    <sheet name="2. Skr.  Áfangastaðar" sheetId="2" r:id="rId2"/>
+    <sheet name="3 Skr. Vinnuf." sheetId="4" r:id="rId3"/>
+    <sheet name="Birting Starfsmanna" sheetId="7" r:id="rId4"/>
+    <sheet name="Birting upplýsinga um starfsm " sheetId="9" r:id="rId5"/>
+    <sheet name="Breyting upplýsinga um starfsm" sheetId="8" r:id="rId6"/>
+    <sheet name="Birting allra flugleiða" sheetId="10" r:id="rId7"/>
+    <sheet name="Birting allra vinnuferða" sheetId="11" r:id="rId8"/>
+    <sheet name="Breyting upplýsinga um vinnufer" sheetId="12" r:id="rId9"/>
+    <sheet name="Birting ákveðinna vinnuferð (2)" sheetId="14" r:id="rId10"/>
+    <sheet name="Birting ákveðinna vinnuferða" sheetId="13" r:id="rId11"/>
+    <sheet name="Birting starfsmanna sem vinna e" sheetId="15" r:id="rId12"/>
+    <sheet name="Birting starfsmanna sem eru að " sheetId="16" r:id="rId13"/>
+    <sheet name="Birting vinnuferða ákveðins sta" sheetId="17" r:id="rId14"/>
+    <sheet name="Skráning flugvélar" sheetId="18" r:id="rId15"/>
+    <sheet name="Birting flugvéla sem tiltekinn " sheetId="19" r:id="rId16"/>
+    <sheet name="Birting stöðu vinnuferðar" sheetId="20" r:id="rId17"/>
+    <sheet name="Breyting upplýsinga tengiliðs" sheetId="21" r:id="rId18"/>
+    <sheet name="Birting stöðu flugvéla" sheetId="22" r:id="rId19"/>
+    <sheet name="Birting allra flugvéla" sheetId="23" r:id="rId20"/>
+    <sheet name="Birting allra flugvéla í notkun" sheetId="24" r:id="rId21"/>
+    <sheet name="Birting allra flugvélategunda" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -142,21 +141,9 @@
     <t>Birting upplýsinga um ákveðinn starfsmann</t>
   </si>
   <si>
-    <t>Endurtekning á vinnuferð</t>
-  </si>
-  <si>
-    <t>Krafa 4 og 5 í kröfulista</t>
-  </si>
-  <si>
     <t>Að minnsta kosti ein vinnuferð er skráð í kerfið</t>
   </si>
   <si>
-    <t>Notandi lætur tiltekna vinnuferð endurtaka sig ákveðin skipti eða reglulega</t>
-  </si>
-  <si>
-    <t>Valin vinnuferð endurtekur sig</t>
-  </si>
-  <si>
     <t>Nýr starfsmaður er skráður í kerfið</t>
   </si>
   <si>
@@ -247,12 +234,6 @@
     <t xml:space="preserve">Kerfið birtir tiltekinn starfsmenn ásamt viðeigandi upplýsingum </t>
   </si>
   <si>
-    <t>Ný vinnuferð sem hefur tvö flugnúmer er skráð í kerfið</t>
-  </si>
-  <si>
-    <t>Krafa 3, 6 og 28 í kröfulista</t>
-  </si>
-  <si>
     <t>Krafa 32 í kröfulista</t>
   </si>
   <si>
@@ -301,18 +282,6 @@
     <t>Kerfið birtir allar flugvélar sem eru í notkun ásamt upplýsingum fyrir hverja vél og hvenær hver vél verður ekki lengur í notkun</t>
   </si>
   <si>
-    <t>Krafa 38 í kröfulista</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Birting allra flugvélategunda</t>
-  </si>
-  <si>
-    <t>Kerfið birtir allar flugvélategundir ásamt því hve margir flugmenn hafa leyfi til að fljúga hverri tegund</t>
-  </si>
-  <si>
     <t>Birting vinnuferða tiltekins starfsmanns í ákveðinni viku</t>
   </si>
   <si>
@@ -320,12 +289,6 @@
   </si>
   <si>
     <t>5a. Það vantar upplýsingar, skref 3 endurtekur sig</t>
-  </si>
-  <si>
-    <t>Skráning flugleiðar</t>
-  </si>
-  <si>
-    <t>Ný flugleið er skráður í kerfinu</t>
   </si>
   <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
@@ -341,25 +304,8 @@
   </si>
   <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur Voyages
-3. Notandi leitar af vinnuferð
-4. Notandi lætur vinnuferð endurtaka sig
-5. Notandi velur hve oft hún endurtekur sig
-6. Notandi staðfestir val sitt 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
 2. Notandi velur Employees
 3. Notandi velur hvort hann vilji birta alla starfsmenn eða eingöngu þá sem eru flugmenn eða flugþjóna
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur Employees
-3. Notandi velur New Employee 
-4. Notandi setur inn viðeigandi upplýsingar um starfsmann
-5. Notandi staðfestir skráningu
 </t>
   </si>
   <si>
@@ -517,10 +463,44 @@
 </t>
   </si>
   <si>
+    <t>5a. Það vantar upplýsingar, skref 4 endurtekur sig</t>
+  </si>
+  <si>
+    <t>Birting allra flugvélategunda</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Krafa 38 í kröfulista</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar flugvélategundir ásamt því hve margir flugmenn hafa leyfi til að fljuga hverri tegund</t>
+  </si>
+  <si>
+    <t>1. Notandi tengist viðmóti
+2. Notandi velur Airplanes
+3. Notandi velur Show all airplane types</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að Airplanes
-3. Notandi velur Show all airplane types
+2. Notandi velur Employees
+3. Notandi velur New employee 
+4. Notandi setur inn viðeigandi upplýsingar um starfsmann
+5. Notandi staðfestir skráningu
 </t>
+  </si>
+  <si>
+    <t>Krafa 3 og 6 í kröfulista</t>
+  </si>
+  <si>
+    <t>Ný vinnuferð er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Skráning áfangastaðar</t>
+  </si>
+  <si>
+    <t>Nýr áfangastaður er skráð í kerfinu</t>
   </si>
 </sst>
 </file>
@@ -1006,19 +986,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C527EF-45B2-4BE8-8101-527FA8A56B77}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1010,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1038,13 +1018,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1076,43 +1056,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" s="16"/>
     </row>
   </sheetData>
@@ -1121,117 +1101,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BC4184-8D5B-45FD-B058-7134DA41E050}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3F38BF-F0CF-4AC5-AAAE-EF7EE92E6006}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -1239,27 +1108,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1267,13 +1136,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1289,47 +1158,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CEB8E8-83E7-4D90-A1A3-D37E9E159C3D}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -1348,27 +1217,27 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1376,13 +1245,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1398,47 +1267,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1449,7 +1318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF5D2F8-066D-44B0-B537-2BBAAFE23B7F}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -1457,27 +1326,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1485,13 +1354,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1507,15 +1376,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1523,31 +1392,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE036FAD-60A4-48A5-96C2-C403E7333178}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -1566,27 +1435,27 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1594,13 +1463,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1608,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1616,15 +1485,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1632,31 +1501,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1667,7 +1536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231267F6-EFFB-4BA3-A683-8225B2276740}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -1675,27 +1544,27 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1703,13 +1572,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1725,15 +1594,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1741,31 +1610,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1776,7 +1645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20C9C74-4566-4724-A059-8ABF00AA230A}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -1784,27 +1653,27 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1812,21 +1681,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1834,15 +1703,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1850,34 +1719,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D327BEA4-E962-455D-934E-D0F8D61A457A}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -1893,27 +1762,27 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1921,21 +1790,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1943,15 +1812,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1959,29 +1828,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +1861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9FA9C-3236-4396-863E-D4EE78B6DC94}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -2000,27 +1869,27 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2028,21 +1897,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2050,47 +1919,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +1970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BECA7B-4B29-48D8-BDFC-4C7C7F118440}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -2109,27 +1978,27 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2137,21 +2006,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2159,15 +2028,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2175,31 +2044,140 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4AB75-0A09-4C8C-9803-43F9037698DA}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2214,31 +2192,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B77A97-6144-4F3F-91B6-E051ED19FF61}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2246,13 +2224,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,7 +2238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2268,7 +2246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2284,34 +2262,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2320,115 +2298,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4AB75-0A09-4C8C-9803-43F9037698DA}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E361A-16B3-48BE-B282-C2DDBFC869EF}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -2436,27 +2305,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2464,21 +2333,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2486,45 +2355,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2535,7 +2404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F40F29-6CBA-43A1-BDDF-B9B2162317DB}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -2543,27 +2412,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2571,21 +2440,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2593,47 +2462,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2644,57 +2513,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F928BAA-0619-4BA5-9ACA-6DD97D4E7BAE}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2702,15 +2571,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2718,38 +2587,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2757,19 +2629,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01002F5D-098B-4BF7-8B2D-4A6C29C94998}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2781,7 +2653,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2789,13 +2661,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2803,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2811,15 +2683,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2827,34 +2699,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="156.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2863,117 +2735,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF657B6-C379-4DD9-946D-115DD1C561C1}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE41DA2E-C5DA-4029-B0E4-17B73C32028E}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -2981,15 +2742,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +2762,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3009,13 +2770,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3023,7 +2784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -3031,7 +2792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3039,7 +2800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3047,31 +2808,140 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104FCCB8-AB3A-4A79-BA4C-5BAC16D11B4D}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3083,115 +2953,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104FCCB8-AB3A-4A79-BA4C-5BAC16D11B4D}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705F9A2E-AE11-4763-90A9-A2F3D2EFF989}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -3199,15 +2960,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3219,7 +2980,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3227,13 +2988,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3241,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -3249,7 +3010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3257,7 +3018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3265,15 +3026,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -3281,15 +3042,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3302,7 +3063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B244B51-B66A-4010-824A-7B2114DECC3C}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -3310,27 +3071,27 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3338,13 +3099,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,7 +3113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -3360,7 +3121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3368,7 +3129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3376,31 +3137,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3411,7 +3172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C11B42-44EC-466A-B35C-331ABBA7CBD1}">
   <dimension ref="B2:H12"/>
   <sheetViews>
@@ -3419,27 +3180,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3447,13 +3208,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,7 +3222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -3469,51 +3230,162 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BC4184-8D5B-45FD-B058-7134DA41E050}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/notkunartilvik.xlsx
+++ b/documentation/notkunartilvik.xlsx
@@ -8,33 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gudmundur\Dropbox\Tölvunarfræði\Verk1\hópverk\verklegtnamskeid1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E0646-CB47-4EFE-88ED-6EE13D72A33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1161F995-54C6-40BD-B96D-D996229720A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14060" activeTab="2" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14060" firstSheet="17" activeTab="20" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Skr. Starfsm." sheetId="3" r:id="rId1"/>
     <sheet name="2. Skr.  Áfangastaðar" sheetId="2" r:id="rId2"/>
     <sheet name="3 Skr. Vinnuf." sheetId="4" r:id="rId3"/>
-    <sheet name="Birting Starfsmanna" sheetId="7" r:id="rId4"/>
-    <sheet name="Birting upplýsinga um starfsm " sheetId="9" r:id="rId5"/>
-    <sheet name="Breyting upplýsinga um starfsm" sheetId="8" r:id="rId6"/>
-    <sheet name="Birting allra flugleiða" sheetId="10" r:id="rId7"/>
-    <sheet name="Birting allra vinnuferða" sheetId="11" r:id="rId8"/>
-    <sheet name="Breyting upplýsinga um vinnufer" sheetId="12" r:id="rId9"/>
-    <sheet name="Birting ákveðinna vinnuferð (2)" sheetId="14" r:id="rId10"/>
-    <sheet name="Birting ákveðinna vinnuferða" sheetId="13" r:id="rId11"/>
-    <sheet name="Birting starfsmanna sem vinna e" sheetId="15" r:id="rId12"/>
-    <sheet name="Birting starfsmanna sem eru að " sheetId="16" r:id="rId13"/>
-    <sheet name="Birting vinnuferða ákveðins sta" sheetId="17" r:id="rId14"/>
-    <sheet name="Skráning flugvélar" sheetId="18" r:id="rId15"/>
-    <sheet name="Birting flugvéla sem tiltekinn " sheetId="19" r:id="rId16"/>
-    <sheet name="Birting stöðu vinnuferðar" sheetId="20" r:id="rId17"/>
-    <sheet name="Breyting upplýsinga tengiliðs" sheetId="21" r:id="rId18"/>
-    <sheet name="Birting stöðu flugvéla" sheetId="22" r:id="rId19"/>
-    <sheet name="Birting allra flugvéla" sheetId="23" r:id="rId20"/>
-    <sheet name="Birting allra flugvéla í notkun" sheetId="24" r:id="rId21"/>
-    <sheet name="Birting allra flugvélategunda" sheetId="25" r:id="rId22"/>
+    <sheet name="5. Birt. Starfsm." sheetId="7" r:id="rId4"/>
+    <sheet name="6. Birt. uppl. starfsm " sheetId="9" r:id="rId5"/>
+    <sheet name="7. Br. uppl. um starfsm" sheetId="8" r:id="rId6"/>
+    <sheet name="8. Birti. allra áfangast." sheetId="10" r:id="rId7"/>
+    <sheet name="9. Birt. allra vinnuf." sheetId="11" r:id="rId8"/>
+    <sheet name="10. Br. uppl. um vinnuf." sheetId="12" r:id="rId9"/>
+    <sheet name="11. Birt. e. dgs. vinnuf." sheetId="14" r:id="rId10"/>
+    <sheet name="12. Birt. e. viku vinnuf." sheetId="13" r:id="rId11"/>
+    <sheet name="13. Bir starfsm. off duty " sheetId="15" r:id="rId12"/>
+    <sheet name="14. Birt. starfsm. on duty " sheetId="16" r:id="rId13"/>
+    <sheet name="15. Bir. vinnuf. ákv. starf." sheetId="17" r:id="rId14"/>
+    <sheet name="16. Skráning flugvélar" sheetId="18" r:id="rId15"/>
+    <sheet name="17. Bir. flugm. e leyfi" sheetId="19" r:id="rId16"/>
+    <sheet name="18. Bir. stöðu vinnuf." sheetId="20" r:id="rId17"/>
+    <sheet name="19. Br. uppl. tengiliðs" sheetId="21" r:id="rId18"/>
+    <sheet name="20. Bir. allra flugvéla" sheetId="23" r:id="rId19"/>
+    <sheet name="21. Bir. allra flugv. í notkun" sheetId="24" r:id="rId20"/>
+    <sheet name="22. Bir allra flugvélategunda" sheetId="25" r:id="rId21"/>
+    <sheet name="xxBirting stöðu flugvéla" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Krafa 11 í kröfulista</t>
   </si>
   <si>
-    <t>4a. Starfsmaður fannst ekki í kerfinu, skref 3 endurtekur sig</t>
-  </si>
-  <si>
     <t>Krafa 12 í kröfulista</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Birting allra vinnuferða</t>
   </si>
   <si>
-    <t>Kerfið birtir allar vinnuferðir og viðeigandi upplýsingar</t>
-  </si>
-  <si>
     <t>Krafa 16 í kröfulista</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>Krafa 17 í kröfulista</t>
   </si>
   <si>
-    <t>Birting ákveðinna vinnuferða</t>
-  </si>
-  <si>
     <t>Kerfið birtir allar vinnuferðir sem eru á tilteknum degi</t>
   </si>
   <si>
@@ -192,18 +183,12 @@
     <t>Að minnsta kosti einn starfsmaður er skráður í kerfið</t>
   </si>
   <si>
-    <t>Kerfið birtir alla starfsmenn sem eru ekki að vinna á tilteknum degi</t>
-  </si>
-  <si>
     <t>Birting starfsmanna sem eru að vinna á tilteknum degi</t>
   </si>
   <si>
     <t>Krafa 20 í kröfulista</t>
   </si>
   <si>
-    <t>Kerfið birtir alla starfsmenn sem eru að vinna á tilteknum degi</t>
-  </si>
-  <si>
     <t>Krafa 21 í kröfulista</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
   </si>
   <si>
     <t>Kerfið birtir stöðu allra flugvéla ásamt upplýsingum hverrar vélar miðað við innslátt notanda</t>
-  </si>
-  <si>
-    <t>Birting allra flugvéla</t>
   </si>
   <si>
     <t>Kerfið birtir allar flugvélar ásamt viðeigandi upplýsingum hverrar vélar</t>
@@ -334,27 +316,6 @@
 6. Notandi staðfestir breytingar</t>
   </si>
   <si>
-    <t>Birting allra flugleiða</t>
-  </si>
-  <si>
-    <t>Að minnsta kosti ein flugleið er skráð í kerfið</t>
-  </si>
-  <si>
-    <t>Kerfið birtir allar flugleiðir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur Flight routes
-3. Notandi velur að birta allar flugleiðir
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur Voyages
-3. Notandi velur að birta allar vinnuferðir
-</t>
-  </si>
-  <si>
     <t>Kerfið breytir upplýsingum um ákveðna vinnuferð</t>
   </si>
   <si>
@@ -389,22 +350,6 @@
   <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
 2. Notandi velur Employees
-2. Notandi velur Show employees off duty
-3. Notandi velur að leita eftir dagsetningu
-4. Notandi setur inn dagsetningu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur Employees
-2. Notandi velur Show employees on duty
-3. Notandi velur að leita eftir dagsetningu
-4. Notandi setur inn dagsetningu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur Employees
 3. Notandi leitar af starfsmanni
 4. Notandi velur að birta vinnuferðir í ákveðinni viku
 5. Notandi setur inn viku
@@ -475,9 +420,6 @@
     <t>Krafa 38 í kröfulista</t>
   </si>
   <si>
-    <t>Kerfið birtir allar flugvélategundir ásamt því hve margir flugmenn hafa leyfi til að fljuga hverri tegund</t>
-  </si>
-  <si>
     <t>1. Notandi tengist viðmóti
 2. Notandi velur Airplanes
 3. Notandi velur Show all airplane types</t>
@@ -501,6 +443,66 @@
   </si>
   <si>
     <t>Nýr áfangastaður er skráð í kerfinu</t>
+  </si>
+  <si>
+    <t>Birting allra áfangastað</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar áfangastað</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn áfangastaður er skráð í kerfið</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Flight routes
+3. Notandi velur að birta allar áfangastaði
+</t>
+  </si>
+  <si>
+    <t>4a. Starfsmaður fannst ekki í kerfinu, skref 3 endurtekur sig
+5a. Notandinn reynir að breyta nafni eða kennitölu, en getur það ekki þar sem þeir valmöguleikar eru ekki boði</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar vinnuferðirog viðeigandi upplýsingar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Voyages
+3a. Notandi velur að birta allar vinnuferðir sem eru í umferð
+3b. Notandi velur að birta allar liðnar vinnurferði
+</t>
+  </si>
+  <si>
+    <t>Birting vinnuferða eftir dagsetningu</t>
+  </si>
+  <si>
+    <t>Birting vinnuferða eftir viku</t>
+  </si>
+  <si>
+    <t>Kerfið birtir alla starfsmenn sem eru ekki að vinna á tilteknum degi /deginum í dag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Employees
+3. Notandi velur Show employees 
+    off duty
+</t>
+  </si>
+  <si>
+    <t>Kerfið birtir alla starfsmenn sem eru að vinna á tilteknum degi / deginum í dag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur Employees
+3. Notandi velur Show employees on duty
+</t>
+  </si>
+  <si>
+    <t>Birting allra flugvéla og stöðu þeirra</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar flugvélategundir</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1075,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -1083,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
@@ -1105,7 +1107,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1121,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1163,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -1171,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -1179,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -1187,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1195,7 +1197,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -1214,7 +1216,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1272,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -1280,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -1288,7 +1290,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -1296,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1304,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -1320,6 +1322,115 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF5D2F8-066D-44B0-B537-2BBAAFE23B7F}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="B2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE036FAD-60A4-48A5-96C2-C403E7333178}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -1351,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -1397,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -1405,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1413,116 +1524,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE036FAD-60A4-48A5-96C2-C403E7333178}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="33.36328125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -1538,115 +1540,6 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231267F6-EFFB-4BA3-A683-8225B2276740}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="33.36328125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20C9C74-4566-4724-A059-8ABF00AA230A}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -1661,12 +1554,12 @@
     <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1678,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -1692,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -1708,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -1716,6 +1609,115 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20C9C74-4566-4724-A059-8ABF00AA230A}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1730,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1738,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -1746,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1761,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1775,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1801,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -1817,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -1833,7 +1835,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -1847,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -1882,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1908,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -1924,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -1932,7 +1934,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -1940,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -1948,7 +1950,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1956,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -1975,7 +1977,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1991,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2003,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -2017,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -2033,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -2049,7 +2051,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -2057,7 +2059,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2065,7 +2067,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -2080,11 +2082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4AB75-0A09-4C8C-9803-43F9037698DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E361A-16B3-48BE-B282-C2DDBFC869EF}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2100,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2112,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -2126,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -2141,16 +2143,14 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -2158,15 +2158,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -2193,7 +2193,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2273,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2281,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -2289,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2298,11 +2298,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E361A-16B3-48BE-B282-C2DDBFC869EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F40F29-6CBA-43A1-BDDF-B9B2162317DB}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -2344,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -2359,38 +2359,40 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -2405,11 +2407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F40F29-6CBA-43A1-BDDF-B9B2162317DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F928BAA-0619-4BA5-9ACA-6DD97D4E7BAE}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2425,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2437,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -2451,7 +2453,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -2467,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -2475,7 +2477,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
@@ -2483,15 +2485,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="58" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2499,26 +2501,29 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F928BAA-0619-4BA5-9ACA-6DD97D4E7BAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4AB75-0A09-4C8C-9803-43F9037698DA}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2534,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2545,9 +2550,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <v>23</v>
-      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -2560,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -2576,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -2584,15 +2587,15 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2600,7 +2603,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2608,20 +2611,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2629,7 +2629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01002F5D-098B-4BF7-8B2D-4A6C29C94998}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2688,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -2710,7 +2710,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="156.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2718,7 +2718,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="58" x14ac:dyDescent="0.35">
@@ -2726,7 +2726,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2739,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2813,7 +2813,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -2821,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2829,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -2848,7 +2848,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -2922,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -2930,7 +2930,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2938,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -2957,7 +2957,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3031,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -3039,7 +3039,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -3047,15 +3047,15 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3068,7 +3068,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3126,7 +3126,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -3142,7 +3142,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -3150,7 +3150,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -3158,7 +3158,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -3177,7 +3177,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3235,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -3251,7 +3251,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -3259,7 +3259,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -3267,7 +3267,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3344,7 +3344,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -3352,7 +3352,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -3360,7 +3360,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -3368,7 +3368,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -3376,7 +3376,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -3384,7 +3384,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
